--- a/censo.xlsx
+++ b/censo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12722297-5AEE-4CF5-A9FD-E7C8B5E1FE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>num_identidad</t>
   </si>
@@ -99,9 +100,6 @@
     <t>07-05-1994</t>
   </si>
   <si>
-    <t>16-04-2000</t>
-  </si>
-  <si>
     <t>calle</t>
   </si>
   <si>
@@ -130,12 +128,24 @@
   </si>
   <si>
     <t>NB</t>
+  </si>
+  <si>
+    <t>16-04-1996</t>
+  </si>
+  <si>
+    <t>Peppa</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>99546321K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,22 +509,22 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -540,22 +550,22 @@
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -579,22 +589,22 @@
         <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -620,22 +630,22 @@
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -658,34 +668,76 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{7DBE089C-0044-453C-AB97-A881B88C0DCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>